--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>St14</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H2">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I2">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J2">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.6605755</v>
+        <v>1.2391355</v>
       </c>
       <c r="N2">
-        <v>3.321151</v>
+        <v>2.478271</v>
       </c>
       <c r="O2">
-        <v>0.418347651036244</v>
+        <v>0.4554244343957924</v>
       </c>
       <c r="P2">
-        <v>0.3376807885245403</v>
+        <v>0.3738439521513966</v>
       </c>
       <c r="Q2">
-        <v>7.605742442942333</v>
+        <v>0.15257661281825</v>
       </c>
       <c r="R2">
-        <v>45.63445465765399</v>
+        <v>0.610306451273</v>
       </c>
       <c r="S2">
-        <v>0.03410079196780192</v>
+        <v>0.0008882453874609495</v>
       </c>
       <c r="T2">
-        <v>0.02767959935702077</v>
+        <v>0.0004872404280155986</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H3">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I3">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J3">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.264467</v>
       </c>
       <c r="O3">
-        <v>0.02220899686616725</v>
+        <v>0.03240020532899807</v>
       </c>
       <c r="P3">
-        <v>0.02688990205465503</v>
+        <v>0.03989450245498713</v>
       </c>
       <c r="Q3">
-        <v>0.4037692327464445</v>
+        <v>0.01085473947016667</v>
       </c>
       <c r="R3">
-        <v>3.633923094718</v>
+        <v>0.065128436821</v>
       </c>
       <c r="S3">
-        <v>0.001810323017401432</v>
+        <v>6.319233392571809E-05</v>
       </c>
       <c r="T3">
-        <v>0.002204157716151181</v>
+        <v>5.199553005946537E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H4">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I4">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J4">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3906076666666667</v>
+        <v>0.1900623333333333</v>
       </c>
       <c r="N4">
-        <v>1.171823</v>
+        <v>0.570187</v>
       </c>
       <c r="O4">
-        <v>0.09840552255934656</v>
+        <v>0.06985437077565602</v>
       </c>
       <c r="P4">
-        <v>0.1191460775650347</v>
+        <v>0.08601196622376987</v>
       </c>
       <c r="Q4">
-        <v>1.789055245549111</v>
+        <v>0.02340266019683333</v>
       </c>
       <c r="R4">
-        <v>16.101497209942</v>
+        <v>0.140415961181</v>
       </c>
       <c r="S4">
-        <v>0.008021334038728452</v>
+        <v>0.0001362417515383901</v>
       </c>
       <c r="T4">
-        <v>0.009766370501474384</v>
+        <v>0.0001121016054858125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H5">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I5">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J5">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4123475</v>
+        <v>0.2942155</v>
       </c>
       <c r="N5">
-        <v>0.824695</v>
+        <v>0.588431</v>
       </c>
       <c r="O5">
-        <v>0.1038824239160867</v>
+        <v>0.1081342013669815</v>
       </c>
       <c r="P5">
-        <v>0.08385154962609223</v>
+        <v>0.08876404985911487</v>
       </c>
       <c r="Q5">
-        <v>1.888627696838333</v>
+        <v>0.03622719583825</v>
       </c>
       <c r="R5">
-        <v>11.33176618103</v>
+        <v>0.144908783353</v>
       </c>
       <c r="S5">
-        <v>0.008467772959400644</v>
+        <v>0.0002109015202893606</v>
       </c>
       <c r="T5">
-        <v>0.006873287963039996</v>
+        <v>0.0001156884667970721</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H6">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I6">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J6">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.847826</v>
+        <v>0.7239923333333333</v>
       </c>
       <c r="N6">
-        <v>2.543478</v>
+        <v>2.171977</v>
       </c>
       <c r="O6">
-        <v>0.2135922248566564</v>
+        <v>0.2660918026440396</v>
       </c>
       <c r="P6">
-        <v>0.2586102398339675</v>
+        <v>0.3276399012303069</v>
       </c>
       <c r="Q6">
-        <v>3.883199645201333</v>
+        <v>0.08914626199183334</v>
       </c>
       <c r="R6">
-        <v>34.948796806812</v>
+        <v>0.5348775719510001</v>
       </c>
       <c r="S6">
-        <v>0.01741055317924035</v>
+        <v>0.0005189770211897114</v>
       </c>
       <c r="T6">
-        <v>0.02119820869734513</v>
+        <v>0.0004270215013289651</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.580184666666667</v>
+        <v>0.1231315</v>
       </c>
       <c r="H7">
-        <v>13.740554</v>
+        <v>0.246263</v>
       </c>
       <c r="I7">
-        <v>0.08151304754152322</v>
+        <v>0.001950368316621783</v>
       </c>
       <c r="J7">
-        <v>0.0819697190295124</v>
+        <v>0.001303325693010755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.569855</v>
+        <v>0.1852753333333333</v>
       </c>
       <c r="N7">
-        <v>1.709565</v>
+        <v>0.555826</v>
       </c>
       <c r="O7">
-        <v>0.143563180765499</v>
+        <v>0.06809498548853234</v>
       </c>
       <c r="P7">
-        <v>0.1738214423957104</v>
+        <v>0.08384562808042469</v>
       </c>
       <c r="Q7">
-        <v>2.610041133223334</v>
+        <v>0.02281322970633334</v>
       </c>
       <c r="R7">
-        <v>23.49037019901</v>
+        <v>0.136879378238</v>
       </c>
       <c r="S7">
-        <v>0.01170227237895041</v>
+        <v>0.0001328103022176536</v>
       </c>
       <c r="T7">
-        <v>0.01424809479448095</v>
+        <v>0.0001092781613238415</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H8">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I8">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J8">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.6605755</v>
+        <v>1.2391355</v>
       </c>
       <c r="N8">
-        <v>3.321151</v>
+        <v>2.478271</v>
       </c>
       <c r="O8">
-        <v>0.418347651036244</v>
+        <v>0.4554244343957924</v>
       </c>
       <c r="P8">
-        <v>0.3376807885245403</v>
+        <v>0.3738439521513966</v>
       </c>
       <c r="Q8">
-        <v>37.38987110705634</v>
+        <v>5.675469417022334</v>
       </c>
       <c r="R8">
-        <v>224.339226642338</v>
+        <v>34.052816502134</v>
       </c>
       <c r="S8">
-        <v>0.1676396782943657</v>
+        <v>0.03304051281667188</v>
       </c>
       <c r="T8">
-        <v>0.1360730605878357</v>
+        <v>0.02718619285938791</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H9">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I9">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J9">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>0.264467</v>
       </c>
       <c r="O9">
-        <v>0.02220899686616725</v>
+        <v>0.03240020532899807</v>
       </c>
       <c r="P9">
-        <v>0.02688990205465503</v>
+        <v>0.03989450245498713</v>
       </c>
       <c r="Q9">
-        <v>1.984931738438445</v>
+        <v>0.4037692327464445</v>
       </c>
       <c r="R9">
-        <v>17.864385645946</v>
+        <v>3.633923094718</v>
       </c>
       <c r="S9">
-        <v>0.008899557773690713</v>
+        <v>0.002350597198096781</v>
       </c>
       <c r="T9">
-        <v>0.01083565128911126</v>
+        <v>0.002901156034567545</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H10">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I10">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J10">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3906076666666667</v>
+        <v>0.1900623333333333</v>
       </c>
       <c r="N10">
-        <v>1.171823</v>
+        <v>0.570187</v>
       </c>
       <c r="O10">
-        <v>0.09840552255934656</v>
+        <v>0.06985437077565602</v>
       </c>
       <c r="P10">
-        <v>0.1191460775650347</v>
+        <v>0.08601196622376987</v>
       </c>
       <c r="Q10">
-        <v>8.795005291897114</v>
+        <v>0.8705205848442222</v>
       </c>
       <c r="R10">
-        <v>79.15504762707401</v>
+        <v>7.834685263598</v>
       </c>
       <c r="S10">
-        <v>0.03943292164632855</v>
+        <v>0.005067853322309436</v>
       </c>
       <c r="T10">
-        <v>0.04801153036318417</v>
+        <v>0.006254850154771539</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H11">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I11">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J11">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4123475</v>
+        <v>0.2942155</v>
       </c>
       <c r="N11">
-        <v>0.824695</v>
+        <v>0.588431</v>
       </c>
       <c r="O11">
-        <v>0.1038824239160867</v>
+        <v>0.1081342013669815</v>
       </c>
       <c r="P11">
-        <v>0.08385154962609223</v>
+        <v>0.08876404985911487</v>
       </c>
       <c r="Q11">
-        <v>9.284504002568335</v>
+        <v>1.347561321795667</v>
       </c>
       <c r="R11">
-        <v>55.70702401541001</v>
+        <v>8.085367930774</v>
       </c>
       <c r="S11">
-        <v>0.04162761780207282</v>
+        <v>0.007845010492083816</v>
       </c>
       <c r="T11">
-        <v>0.03378912091063768</v>
+        <v>0.006454983595596483</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H12">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I12">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J12">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.847826</v>
+        <v>0.7239923333333333</v>
       </c>
       <c r="N12">
-        <v>2.543478</v>
+        <v>2.171977</v>
       </c>
       <c r="O12">
-        <v>0.2135922248566564</v>
+        <v>0.2660918026440396</v>
       </c>
       <c r="P12">
-        <v>0.2586102398339675</v>
+        <v>0.3276399012303069</v>
       </c>
       <c r="Q12">
-        <v>19.08983052032934</v>
+        <v>3.316018583917556</v>
       </c>
       <c r="R12">
-        <v>171.808474682964</v>
+        <v>29.844167255258</v>
       </c>
       <c r="S12">
-        <v>0.08559037387315357</v>
+        <v>0.01930465067675987</v>
       </c>
       <c r="T12">
-        <v>0.1042105089463946</v>
+        <v>0.02382620206109614</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.51621266666667</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H13">
-        <v>67.54863800000001</v>
+        <v>13.740554</v>
       </c>
       <c r="I13">
-        <v>0.4007185838838189</v>
+        <v>0.07254883647274313</v>
       </c>
       <c r="J13">
-        <v>0.4029635833960003</v>
+        <v>0.07272069723994959</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.569855</v>
+        <v>0.1852753333333333</v>
       </c>
       <c r="N13">
-        <v>1.709565</v>
+        <v>0.555826</v>
       </c>
       <c r="O13">
-        <v>0.143563180765499</v>
+        <v>0.06809498548853234</v>
       </c>
       <c r="P13">
-        <v>0.1738214423957104</v>
+        <v>0.08384562808042469</v>
       </c>
       <c r="Q13">
-        <v>12.83097636916334</v>
+        <v>0.848595240844889</v>
       </c>
       <c r="R13">
-        <v>115.47878732247</v>
+        <v>7.637357167604001</v>
       </c>
       <c r="S13">
-        <v>0.05752843449420746</v>
+        <v>0.004940211966821349</v>
       </c>
       <c r="T13">
-        <v>0.07004371129883689</v>
+        <v>0.006097312534529979</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H14">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I14">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J14">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.6605755</v>
+        <v>1.2391355</v>
       </c>
       <c r="N14">
-        <v>3.321151</v>
+        <v>2.478271</v>
       </c>
       <c r="O14">
-        <v>0.418347651036244</v>
+        <v>0.4554244343957924</v>
       </c>
       <c r="P14">
-        <v>0.3376807885245403</v>
+        <v>0.3738439521513966</v>
       </c>
       <c r="Q14">
-        <v>1.559502911617</v>
+        <v>18.97285303364133</v>
       </c>
       <c r="R14">
-        <v>6.238011646467998</v>
+        <v>113.837118201848</v>
       </c>
       <c r="S14">
-        <v>0.006992122696921031</v>
+        <v>0.1104530300078246</v>
       </c>
       <c r="T14">
-        <v>0.003783668818965572</v>
+        <v>0.09088228721986727</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H15">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I15">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J15">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.264467</v>
       </c>
       <c r="O15">
-        <v>0.02220899686616725</v>
+        <v>0.03240020532899807</v>
       </c>
       <c r="P15">
-        <v>0.02688990205465503</v>
+        <v>0.03989450245498713</v>
       </c>
       <c r="Q15">
-        <v>0.08278998385933334</v>
+        <v>1.349783383455111</v>
       </c>
       <c r="R15">
-        <v>0.496739903156</v>
+        <v>12.148050451096</v>
       </c>
       <c r="S15">
-        <v>0.0003711937444351099</v>
+        <v>0.007857946524567422</v>
       </c>
       <c r="T15">
-        <v>0.0003012978155902482</v>
+        <v>0.00969844131419713</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H16">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I16">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J16">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3906076666666667</v>
+        <v>0.1900623333333333</v>
       </c>
       <c r="N16">
-        <v>1.171823</v>
+        <v>0.570187</v>
       </c>
       <c r="O16">
-        <v>0.09840552255934656</v>
+        <v>0.06985437077565602</v>
       </c>
       <c r="P16">
-        <v>0.1191460775650347</v>
+        <v>0.08601196622376987</v>
       </c>
       <c r="Q16">
-        <v>0.3668329404273333</v>
+        <v>2.910113314939556</v>
       </c>
       <c r="R16">
-        <v>2.200997642564</v>
+        <v>26.191019834456</v>
       </c>
       <c r="S16">
-        <v>0.001644716986184226</v>
+        <v>0.01694161825484285</v>
       </c>
       <c r="T16">
-        <v>0.001335016127374725</v>
+        <v>0.02090969821421243</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H17">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I17">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J17">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4123475</v>
+        <v>0.2942155</v>
       </c>
       <c r="N17">
-        <v>0.824695</v>
+        <v>0.588431</v>
       </c>
       <c r="O17">
-        <v>0.1038824239160867</v>
+        <v>0.1081342013669815</v>
       </c>
       <c r="P17">
-        <v>0.08385154962609223</v>
+        <v>0.08876404985911487</v>
       </c>
       <c r="Q17">
-        <v>0.3872495570649999</v>
+        <v>4.504840222654667</v>
       </c>
       <c r="R17">
-        <v>1.54899822826</v>
+        <v>27.029041335928</v>
       </c>
       <c r="S17">
-        <v>0.001736256083369076</v>
+        <v>0.02622553663442546</v>
       </c>
       <c r="T17">
-        <v>0.0009395455842437798</v>
+        <v>0.02157873580051323</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H18">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I18">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J18">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.847826</v>
+        <v>0.7239923333333333</v>
       </c>
       <c r="N18">
-        <v>2.543478</v>
+        <v>2.171977</v>
       </c>
       <c r="O18">
-        <v>0.2135922248566564</v>
+        <v>0.2660918026440396</v>
       </c>
       <c r="P18">
-        <v>0.2586102398339675</v>
+        <v>0.3276399012303069</v>
       </c>
       <c r="Q18">
-        <v>0.7962222226839999</v>
+        <v>11.08530918355289</v>
       </c>
       <c r="R18">
-        <v>4.777333336103999</v>
+        <v>99.76778265197601</v>
       </c>
       <c r="S18">
-        <v>0.003569908996995181</v>
+        <v>0.06453462669667813</v>
       </c>
       <c r="T18">
-        <v>0.00289769372134086</v>
+        <v>0.07964998079263554</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9391339999999999</v>
+        <v>15.31136266666667</v>
       </c>
       <c r="H19">
-        <v>1.878268</v>
+        <v>45.934088</v>
       </c>
       <c r="I19">
-        <v>0.01671366548754749</v>
+        <v>0.2425276767469924</v>
       </c>
       <c r="J19">
-        <v>0.01120486846615676</v>
+        <v>0.2431021999870749</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.569855</v>
+        <v>0.1852753333333333</v>
       </c>
       <c r="N19">
-        <v>1.709565</v>
+        <v>0.555826</v>
       </c>
       <c r="O19">
-        <v>0.143563180765499</v>
+        <v>0.06809498548853234</v>
       </c>
       <c r="P19">
-        <v>0.1738214423957104</v>
+        <v>0.08384562808042469</v>
       </c>
       <c r="Q19">
-        <v>0.5351702055699999</v>
+        <v>2.836817821854223</v>
       </c>
       <c r="R19">
-        <v>3.21102123342</v>
+        <v>25.531360396688</v>
       </c>
       <c r="S19">
-        <v>0.002399466979642861</v>
+        <v>0.01651491862865391</v>
       </c>
       <c r="T19">
-        <v>0.00194764639864158</v>
+        <v>0.0203830566456493</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H20">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I20">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J20">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.6605755</v>
+        <v>1.2391355</v>
       </c>
       <c r="N20">
-        <v>3.321151</v>
+        <v>2.478271</v>
       </c>
       <c r="O20">
-        <v>0.418347651036244</v>
+        <v>0.4554244343957924</v>
       </c>
       <c r="P20">
-        <v>0.3376807885245403</v>
+        <v>0.3738439521513966</v>
       </c>
       <c r="Q20">
-        <v>0.1395226605603333</v>
+        <v>0.4020635348205</v>
       </c>
       <c r="R20">
-        <v>0.8371359633619999</v>
+        <v>1.608254139282</v>
       </c>
       <c r="S20">
-        <v>0.0006255580251704618</v>
+        <v>0.00234066724692578</v>
       </c>
       <c r="T20">
-        <v>0.0005077652016890562</v>
+        <v>0.001283955680866791</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H21">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I21">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J21">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.264467</v>
       </c>
       <c r="O21">
-        <v>0.02220899686616725</v>
+        <v>0.03240020532899807</v>
       </c>
       <c r="P21">
-        <v>0.02688990205465503</v>
+        <v>0.03989450245498713</v>
       </c>
       <c r="Q21">
-        <v>0.007406897883777779</v>
+        <v>0.028603957319</v>
       </c>
       <c r="R21">
-        <v>0.066662080954</v>
+        <v>0.171623743914</v>
       </c>
       <c r="S21">
-        <v>3.320926073375496E-05</v>
+        <v>0.0001665218062089041</v>
       </c>
       <c r="T21">
-        <v>4.043391571027625E-05</v>
+        <v>0.0001370164550413565</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H22">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I22">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J22">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3906076666666667</v>
+        <v>0.1900623333333333</v>
       </c>
       <c r="N22">
-        <v>1.171823</v>
+        <v>0.570187</v>
       </c>
       <c r="O22">
-        <v>0.09840552255934656</v>
+        <v>0.06985437077565602</v>
       </c>
       <c r="P22">
-        <v>0.1191460775650347</v>
+        <v>0.08601196622376987</v>
       </c>
       <c r="Q22">
-        <v>0.03281911655844445</v>
+        <v>0.061669715359</v>
       </c>
       <c r="R22">
-        <v>0.295372049026</v>
+        <v>0.370018292154</v>
       </c>
       <c r="S22">
-        <v>0.0001471464324124028</v>
+        <v>0.0003590185887722718</v>
       </c>
       <c r="T22">
-        <v>0.0001791580515125253</v>
+        <v>0.0002954054814047346</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H23">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I23">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J23">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.4123475</v>
+        <v>0.2942155</v>
       </c>
       <c r="N23">
-        <v>0.824695</v>
+        <v>0.588431</v>
       </c>
       <c r="O23">
-        <v>0.1038824239160867</v>
+        <v>0.1081342013669815</v>
       </c>
       <c r="P23">
-        <v>0.08385154962609223</v>
+        <v>0.08876404985911487</v>
       </c>
       <c r="Q23">
-        <v>0.03464571184833334</v>
+        <v>0.09546439750050001</v>
       </c>
       <c r="R23">
-        <v>0.20787427109</v>
+        <v>0.381857590002</v>
       </c>
       <c r="S23">
-        <v>0.0001553360794399153</v>
+        <v>0.0005557589015792801</v>
       </c>
       <c r="T23">
-        <v>0.0001260862342624459</v>
+        <v>0.0003048574289285259</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H24">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I24">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J24">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.847826</v>
+        <v>0.7239923333333333</v>
       </c>
       <c r="N24">
-        <v>2.543478</v>
+        <v>2.171977</v>
       </c>
       <c r="O24">
-        <v>0.2135922248566564</v>
+        <v>0.2660918026440396</v>
       </c>
       <c r="P24">
-        <v>0.2586102398339675</v>
+        <v>0.3276399012303069</v>
       </c>
       <c r="Q24">
-        <v>0.07123490573733333</v>
+        <v>0.234914516389</v>
       </c>
       <c r="R24">
-        <v>0.6411141516360001</v>
+        <v>1.409487098334</v>
       </c>
       <c r="S24">
-        <v>0.0003193858745044546</v>
+        <v>0.001367586629273962</v>
       </c>
       <c r="T24">
-        <v>0.000388868082078074</v>
+        <v>0.001125269273562903</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.08402066666666667</v>
+        <v>0.324471</v>
       </c>
       <c r="H25">
-        <v>0.252062</v>
+        <v>0.648942</v>
       </c>
       <c r="I25">
-        <v>0.001495306651348368</v>
+        <v>0.005139529349212725</v>
       </c>
       <c r="J25">
-        <v>0.001503684008520832</v>
+        <v>0.003434469578758423</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.569855</v>
+        <v>0.1852753333333333</v>
       </c>
       <c r="N25">
-        <v>1.709565</v>
+        <v>0.555826</v>
       </c>
       <c r="O25">
-        <v>0.143563180765499</v>
+        <v>0.06809498548853234</v>
       </c>
       <c r="P25">
-        <v>0.1738214423957104</v>
+        <v>0.08384562808042469</v>
       </c>
       <c r="Q25">
-        <v>0.04787959700333334</v>
+        <v>0.06011647268200001</v>
       </c>
       <c r="R25">
-        <v>0.43091637303</v>
+        <v>0.360698836092</v>
       </c>
       <c r="S25">
-        <v>0.0002146709790873788</v>
+        <v>0.0003499761764525266</v>
       </c>
       <c r="T25">
-        <v>0.0002613725232684547</v>
+        <v>0.0002879652589541116</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,13 +2016,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H26">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I26">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J26">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.6605755</v>
+        <v>1.2391355</v>
       </c>
       <c r="N26">
-        <v>3.321151</v>
+        <v>2.478271</v>
       </c>
       <c r="O26">
-        <v>0.418347651036244</v>
+        <v>0.4554244343957924</v>
       </c>
       <c r="P26">
-        <v>0.3376807885245403</v>
+        <v>0.3738439521513966</v>
       </c>
       <c r="Q26">
-        <v>46.61241627981866</v>
+        <v>18.21131215981917</v>
       </c>
       <c r="R26">
-        <v>279.674497678912</v>
+        <v>109.267872958915</v>
       </c>
       <c r="S26">
-        <v>0.2089895000519848</v>
+        <v>0.1060196168127021</v>
       </c>
       <c r="T26">
-        <v>0.1696366945590292</v>
+        <v>0.08723441326534627</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,13 +2078,13 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H27">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I27">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J27">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,22 +2117,22 @@
         <v>0.264467</v>
       </c>
       <c r="O27">
-        <v>0.02220899686616725</v>
+        <v>0.03240020532899807</v>
       </c>
       <c r="P27">
-        <v>0.02688990205465503</v>
+        <v>0.03989450245498713</v>
       </c>
       <c r="Q27">
-        <v>2.474532854478223</v>
+        <v>1.295605173383889</v>
       </c>
       <c r="R27">
-        <v>22.270795690304</v>
+        <v>11.660446560455</v>
       </c>
       <c r="S27">
-        <v>0.01109471306990624</v>
+        <v>0.007542540747051712</v>
       </c>
       <c r="T27">
-        <v>0.01350836131809207</v>
+        <v>0.009309160932378392</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,13 +2140,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H28">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I28">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J28">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.3906076666666667</v>
+        <v>0.1900623333333333</v>
       </c>
       <c r="N28">
-        <v>1.171823</v>
+        <v>0.570187</v>
       </c>
       <c r="O28">
-        <v>0.09840552255934656</v>
+        <v>0.06985437077565602</v>
       </c>
       <c r="P28">
-        <v>0.1191460775650347</v>
+        <v>0.08601196622376987</v>
       </c>
       <c r="Q28">
-        <v>10.96437178601956</v>
+        <v>2.793305883139444</v>
       </c>
       <c r="R28">
-        <v>98.67934607417601</v>
+        <v>25.139752948255</v>
       </c>
       <c r="S28">
-        <v>0.04915940345569293</v>
+        <v>0.01626160799244962</v>
       </c>
       <c r="T28">
-        <v>0.05985400252148889</v>
+        <v>0.02007041538093614</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,13 +2202,13 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H29">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I29">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J29">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.4123475</v>
+        <v>0.2942155</v>
       </c>
       <c r="N29">
-        <v>0.824695</v>
+        <v>0.588431</v>
       </c>
       <c r="O29">
-        <v>0.1038824239160867</v>
+        <v>0.1081342013669815</v>
       </c>
       <c r="P29">
-        <v>0.08385154962609223</v>
+        <v>0.08876404985911487</v>
       </c>
       <c r="Q29">
-        <v>11.57460971930667</v>
+        <v>4.324022927885833</v>
       </c>
       <c r="R29">
-        <v>69.44765831584</v>
+        <v>25.944137567315</v>
       </c>
       <c r="S29">
-        <v>0.05189544099180424</v>
+        <v>0.02517288429744572</v>
       </c>
       <c r="T29">
-        <v>0.04212350893390834</v>
+        <v>0.02071259883690725</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,13 +2264,13 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>28.07003733333334</v>
+        <v>14.69678833333333</v>
       </c>
       <c r="H30">
-        <v>84.21011200000001</v>
+        <v>44.090365</v>
       </c>
       <c r="I30">
-        <v>0.499559396435762</v>
+        <v>0.2327929922191316</v>
       </c>
       <c r="J30">
-        <v>0.5023581450998098</v>
+        <v>0.23334445498805</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.847826</v>
+        <v>0.7239923333333333</v>
       </c>
       <c r="N30">
-        <v>2.543478</v>
+        <v>2.171977</v>
       </c>
       <c r="O30">
-        <v>0.2135922248566564</v>
+        <v>0.2660918026440396</v>
       </c>
       <c r="P30">
-        <v>0.2586102398339675</v>
+        <v>0.3276399012303069</v>
       </c>
       <c r="Q30">
-        <v>23.79850747217067</v>
+        <v>10.64036207795611</v>
       </c>
       <c r="R30">
-        <v>214.186567249536</v>
+        <v>95.763258701605</v>
       </c>
       <c r="S30">
-        <v>0.1067020029327628</v>
+        <v>0.06194430694248861</v>
       </c>
       <c r="T30">
-        <v>0.1299149603868088</v>
+        <v>0.07645295418492448</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>14.69678833333333</v>
+      </c>
+      <c r="H31">
+        <v>44.090365</v>
+      </c>
+      <c r="I31">
+        <v>0.2327929922191316</v>
+      </c>
+      <c r="J31">
+        <v>0.23334445498805</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.1852753333333333</v>
+      </c>
+      <c r="N31">
+        <v>0.555826</v>
+      </c>
+      <c r="O31">
+        <v>0.06809498548853234</v>
+      </c>
+      <c r="P31">
+        <v>0.08384562808042469</v>
+      </c>
+      <c r="Q31">
+        <v>2.722952357387778</v>
+      </c>
+      <c r="R31">
+        <v>24.50657121649</v>
+      </c>
+      <c r="S31">
+        <v>0.01585203542699378</v>
+      </c>
+      <c r="T31">
+        <v>0.01956491238755743</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H32">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I32">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J32">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.2391355</v>
+      </c>
+      <c r="N32">
+        <v>2.478271</v>
+      </c>
+      <c r="O32">
+        <v>0.4554244343957924</v>
+      </c>
+      <c r="P32">
+        <v>0.3738439521513966</v>
+      </c>
+      <c r="Q32">
+        <v>34.81536603225316</v>
+      </c>
+      <c r="R32">
+        <v>208.892196193519</v>
+      </c>
+      <c r="S32">
+        <v>0.2026823621242071</v>
+      </c>
+      <c r="T32">
+        <v>0.1667698626979127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H33">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I33">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J33">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.08815566666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.264467</v>
+      </c>
+      <c r="O33">
+        <v>0.03240020532899807</v>
+      </c>
+      <c r="P33">
+        <v>0.03989450245498713</v>
+      </c>
+      <c r="Q33">
+        <v>2.476865365262555</v>
+      </c>
+      <c r="R33">
+        <v>22.291788287363</v>
+      </c>
+      <c r="S33">
+        <v>0.01441940671914753</v>
+      </c>
+      <c r="T33">
+        <v>0.01779673218874324</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H34">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I34">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J34">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.1900623333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.570187</v>
+      </c>
+      <c r="O34">
+        <v>0.06985437077565602</v>
+      </c>
+      <c r="P34">
+        <v>0.08601196622376987</v>
+      </c>
+      <c r="Q34">
+        <v>5.340085651604777</v>
+      </c>
+      <c r="R34">
+        <v>48.06077086444299</v>
+      </c>
+      <c r="S34">
+        <v>0.03108803086574344</v>
+      </c>
+      <c r="T34">
+        <v>0.0383694953869592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H35">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I35">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J35">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.2942155</v>
+      </c>
+      <c r="N35">
+        <v>0.588431</v>
+      </c>
+      <c r="O35">
+        <v>0.1081342013669815</v>
+      </c>
+      <c r="P35">
+        <v>0.08876404985911487</v>
+      </c>
+      <c r="Q35">
+        <v>8.266424716959833</v>
+      </c>
+      <c r="R35">
+        <v>49.598548301759</v>
+      </c>
+      <c r="S35">
+        <v>0.04812410952115783</v>
+      </c>
+      <c r="T35">
+        <v>0.0395971857303723</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>28.07003733333334</v>
-      </c>
-      <c r="H31">
-        <v>84.21011200000001</v>
-      </c>
-      <c r="I31">
-        <v>0.499559396435762</v>
-      </c>
-      <c r="J31">
-        <v>0.5023581450998098</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.569855</v>
-      </c>
-      <c r="N31">
-        <v>1.709565</v>
-      </c>
-      <c r="O31">
-        <v>0.143563180765499</v>
-      </c>
-      <c r="P31">
-        <v>0.1738214423957104</v>
-      </c>
-      <c r="Q31">
-        <v>15.99585112458667</v>
-      </c>
-      <c r="R31">
-        <v>143.96266012128</v>
-      </c>
-      <c r="S31">
-        <v>0.07171833593361086</v>
-      </c>
-      <c r="T31">
-        <v>0.08732061738048251</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H36">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I36">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J36">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.7239923333333333</v>
+      </c>
+      <c r="N36">
+        <v>2.171977</v>
+      </c>
+      <c r="O36">
+        <v>0.2660918026440396</v>
+      </c>
+      <c r="P36">
+        <v>0.3276399012303069</v>
+      </c>
+      <c r="Q36">
+        <v>20.34164793886144</v>
+      </c>
+      <c r="R36">
+        <v>183.074831449753</v>
+      </c>
+      <c r="S36">
+        <v>0.1184216546776493</v>
+      </c>
+      <c r="T36">
+        <v>0.1461584734167589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>28.09649633333333</v>
+      </c>
+      <c r="H37">
+        <v>84.28948899999999</v>
+      </c>
+      <c r="I37">
+        <v>0.4450405968952984</v>
+      </c>
+      <c r="J37">
+        <v>0.4460948525131563</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.1852753333333333</v>
+      </c>
+      <c r="N37">
+        <v>0.555826</v>
+      </c>
+      <c r="O37">
+        <v>0.06809498548853234</v>
+      </c>
+      <c r="P37">
+        <v>0.08384562808042469</v>
+      </c>
+      <c r="Q37">
+        <v>5.205587723657111</v>
+      </c>
+      <c r="R37">
+        <v>46.850289512914</v>
+      </c>
+      <c r="S37">
+        <v>0.03030503298739311</v>
+      </c>
+      <c r="T37">
+        <v>0.03740310309241001</v>
       </c>
     </row>
   </sheetData>
